--- a/National/Exploration/Output/Debido_proceso/proceso_justo.xlsx
+++ b/National/Exploration/Output/Debido_proceso/proceso_justo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/mexico/MEX Research Team/FEDERAL AWARDS/ENPOL/Data/National/Exploration/Output/Debido_proceso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_534CCC485A7A244B6A7DAE188893072307D7B43F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85D7D375-074F-614B-ABED-BCA0EE5AAA13}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_534CCC485A7A244B6A7DAE188893072307D7B43F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD877C9-D6AB-914A-BC7F-D73BC79D5CBA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -176,7 +176,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -189,6 +189,1028 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proceso injusto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>indicador_general</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>indicador_gdh</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>indicador_uaa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>indicador_pj</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 2'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.66875650751152704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40305667112896099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76191042999553704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70946749962814204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAFE-E741-9DD5-4EC2FDEC7EC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 2'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proceso justo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>indicador_general</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>indicador_gdh</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>indicador_uaa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>indicador_pj</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 2'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.79082659861051996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59031617751311405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85902452856940403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84250673472281301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DAFE-E741-9DD5-4EC2FDEC7EC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="73516368"/>
+        <c:axId val="73518096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="73516368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73518096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73518096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73516368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>143601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE69FF1-1647-CD57-CB9C-03563FDAF524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2654300" y="850900"/>
+          <a:ext cx="7772400" cy="4626701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA00914-E6C4-CB6D-5B7A-A37F1D282B77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,20 +1492,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +1549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -571,7 +1593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -614,10 +1636,19 @@
       <c r="N3" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -625,16 +1656,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -651,7 +1682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -668,7 +1699,7 @@
         <v>0.70946749962814204</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -685,7 +1716,7 @@
         <v>0.84250673472281301</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -709,6 +1740,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -722,19 +1754,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d2d4c2ad-b63f-415b-82f0-3296fc2966de">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c3806d3e6fb65c8bdfcf88b09bad624">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="633ab8d5157df3ae18d9ff64886c87df" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
     <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
     <xsd:element name="properties">
@@ -800,7 +1821,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -849,7 +1870,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -868,7 +1889,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -885,8 +1906,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -975,14 +1996,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d2d4c2ad-b63f-415b-82f0-3296fc2966de">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9B8ABF8-6D93-442C-A2B0-724B6EEEB03E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9B8ABF8-6D93-442C-A2B0-724B6EEEB03E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DEFB48A-2F5F-44F6-B966-6D89CC956D23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F0C9BF5-BA77-4853-B4A6-FE6172CED355}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5BA9551-60B4-4347-AF89-F51AD9CF761B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DEFB48A-2F5F-44F6-B966-6D89CC956D23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/National/Exploration/Output/Debido_proceso/proceso_justo.xlsx
+++ b/National/Exploration/Output/Debido_proceso/proceso_justo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/mexico/MEX Research Team/FEDERAL AWARDS/ENPOL/Data/National/Exploration/Output/Debido_proceso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_534CCC485A7A244B6A7DAE188893072307D7B43F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD877C9-D6AB-914A-BC7F-D73BC79D5CBA}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_534CCC485A7A244B6A7DAE188893072307D7B43F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26DCDB10-248F-A143-A773-DC8B7D60C727}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -133,6 +133,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,9 +173,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -290,9 +295,9 @@
             <c:numRef>
               <c:f>'Sheet 2'!$B$2:$E$2</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0.66875650751152704</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -361,9 +366,9 @@
             <c:numRef>
               <c:f>'Sheet 2'!$B$3:$E$3</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0.79082659861051996</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1495,7 +1500,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1654,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1689,13 +1694,13 @@
       <c r="B2" s="1">
         <v>0.66875650751152704</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.40305667112896099</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.76191042999553704</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.70946749962814204</v>
       </c>
     </row>
@@ -1706,13 +1711,13 @@
       <c r="B3" s="1">
         <v>0.79082659861051996</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.59031617751311405</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.85902452856940403</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.84250673472281301</v>
       </c>
     </row>
@@ -1735,6 +1740,12 @@
       <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>-0.13303923509467097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <f>AVERAGE(C3:E3)</f>
+        <v>0.7639491469351104</v>
       </c>
     </row>
   </sheetData>
@@ -1745,15 +1756,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
     <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
@@ -1996,6 +1998,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2008,6 +2019,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F0C9BF5-BA77-4853-B4A6-FE6172CED355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9B8ABF8-6D93-442C-A2B0-724B6EEEB03E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2015,23 +2045,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F0C9BF5-BA77-4853-B4A6-FE6172CED355}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DEFB48A-2F5F-44F6-B966-6D89CC956D23}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/National/Exploration/Output/Debido_proceso/proceso_justo.xlsx
+++ b/National/Exploration/Output/Debido_proceso/proceso_justo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/mexico/MEX Research Team/FEDERAL AWARDS/ENPOL/Data/National/Exploration/Output/Debido_proceso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_534CCC485A7A244B6A7DAE188893072307D7B43F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26DCDB10-248F-A143-A773-DC8B7D60C727}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_534CCC485A7A244B6A7DAE188893072307D7B43F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C1198B8-43DA-1549-8355-FAB5CF5A737C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -177,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,55 +1130,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>143601</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE69FF1-1647-CD57-CB9C-03563FDAF524}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2654300" y="850900"/>
-          <a:ext cx="7772400" cy="4626701"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1499,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1653,7 +1604,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1661,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1756,6 +1706,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d2d4c2ad-b63f-415b-82f0-3296fc2966de">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
     <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
@@ -1998,27 +1968,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DEFB48A-2F5F-44F6-B966-6D89CC956D23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d2d4c2ad-b63f-415b-82f0-3296fc2966de">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9B8ABF8-6D93-442C-A2B0-724B6EEEB03E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F0C9BF5-BA77-4853-B4A6-FE6172CED355}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2035,29 +2010,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9B8ABF8-6D93-442C-A2B0-724B6EEEB03E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DEFB48A-2F5F-44F6-B966-6D89CC956D23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>